--- a/nodes_source_analyses/energy/energy_compressor_network_gas.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_compressor_network_gas.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23520" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="8740" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,8 +46,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -189,9 +197,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -629,6 +634,10 @@
   <si>
     <t>land_user_per_unit (10m x 10m)</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -641,7 +650,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -850,11 +859,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1481,7 +1485,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1855,7 +1859,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1948,20 +1952,20 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1981,8 +1985,8 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2066,9 +2070,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2086,56 +2090,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="34" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2149,6 +2126,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="647">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2809,77 +2792,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3109,7 +3022,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3222,7 +3135,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3283,7 +3196,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3674,50 +3587,50 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3726,29 +3639,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="75" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="77" t="s">
         <v>28</v>
@@ -3757,33 +3670,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="77"/>
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="77" t="s">
         <v>33</v>
@@ -3792,49 +3705,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>41</v>
@@ -3843,88 +3756,83 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="179" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="182"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="185"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:12">
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="188" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="188"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="188"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3935,7 +3843,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="26" customFormat="1">
+    <row r="9" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3956,7 +3864,7 @@
       </c>
       <c r="J9" s="92"/>
     </row>
-    <row r="10" spans="1:12" s="26" customFormat="1">
+    <row r="10" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3967,7 +3875,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>45</v>
@@ -3980,10 +3888,10 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
-      <c r="C12" s="193" t="s">
-        <v>129</v>
+      <c r="C12" s="184" t="s">
+        <v>128</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="104">
@@ -3993,16 +3901,16 @@
       <c r="F12" s="39"/>
       <c r="G12" s="107"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="194" t="s">
-        <v>156</v>
+      <c r="I12" s="185" t="s">
+        <v>155</v>
       </c>
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
-      <c r="C13" s="193" t="s">
-        <v>61</v>
+      <c r="C13" s="184" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="104">
@@ -4012,17 +3920,17 @@
       <c r="F13" s="39"/>
       <c r="G13" s="107"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="194" t="s">
-        <v>156</v>
+      <c r="I13" s="185" t="s">
+        <v>155</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="193" t="s">
-        <v>146</v>
+      <c r="C14" s="184" t="s">
+        <v>145</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>2</v>
@@ -4033,23 +3941,23 @@
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="194" t="s">
-        <v>156</v>
+      <c r="I14" s="185" t="s">
+        <v>155</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="111"/>
       <c r="C15" s="177" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="104">
         <f>'Research data'!H10</f>
@@ -4057,20 +3965,20 @@
       </c>
       <c r="F15" s="107"/>
       <c r="G15" s="177" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="107"/>
-      <c r="I15" s="194" t="s">
-        <v>155</v>
+      <c r="I15" s="185" t="s">
+        <v>154</v>
       </c>
       <c r="J15" s="113"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
@@ -4081,16 +3989,16 @@
       <c r="F16" s="107"/>
       <c r="G16" s="107"/>
       <c r="H16" s="107"/>
-      <c r="I16" s="194" t="s">
-        <v>113</v>
+      <c r="I16" s="185" t="s">
+        <v>112</v>
       </c>
       <c r="J16" s="113"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1">
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="111"/>
       <c r="C17" s="107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -4103,15 +4011,15 @@
       <c r="G17" s="107"/>
       <c r="H17" s="107"/>
       <c r="I17" s="154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J17" s="113"/>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1">
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="111"/>
       <c r="C18" s="144" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="104">
@@ -4120,15 +4028,15 @@
       </c>
       <c r="F18" s="107"/>
       <c r="G18" s="144" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="107"/>
-      <c r="I18" s="194" t="s">
-        <v>158</v>
+      <c r="I18" s="185" t="s">
+        <v>157</v>
       </c>
       <c r="J18" s="113"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="40"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -4138,7 +4046,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="93"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
         <v>44</v>
@@ -4151,7 +4059,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="93"/>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>22</v>
@@ -4168,18 +4076,18 @@
         <v>6</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="194" t="s">
-        <v>131</v>
+      <c r="I21" s="185" t="s">
+        <v>130</v>
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="41">
         <f>'Research data'!H21</f>
@@ -4190,18 +4098,18 @@
         <v>25</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="194" t="s">
-        <v>155</v>
+      <c r="I22" s="185" t="s">
+        <v>154</v>
       </c>
       <c r="J22" s="93"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="134"/>
       <c r="C23" s="178" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="104">
         <f>'Research data'!H23</f>
@@ -4209,19 +4117,19 @@
       </c>
       <c r="F23" s="137"/>
       <c r="G23" s="135" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" s="137"/>
       <c r="I23" s="154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J23" s="138"/>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="139"/>
       <c r="B24" s="141"/>
       <c r="C24" s="142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="136"/>
       <c r="E24" s="104">
@@ -4230,7 +4138,7 @@
       </c>
       <c r="F24" s="142"/>
       <c r="G24" s="142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="142"/>
       <c r="I24" s="155" t="s">
@@ -4238,11 +4146,11 @@
       </c>
       <c r="J24" s="143"/>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="139"/>
       <c r="B25" s="141"/>
       <c r="C25" s="142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="136"/>
       <c r="E25" s="104">
@@ -4251,20 +4159,20 @@
       </c>
       <c r="F25" s="142"/>
       <c r="G25" s="142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" s="142"/>
-      <c r="I25" s="195" t="s">
-        <v>131</v>
+      <c r="I25" s="186" t="s">
+        <v>130</v>
       </c>
       <c r="J25" s="143"/>
       <c r="K25" s="139"/>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="139"/>
       <c r="B26" s="141"/>
       <c r="C26" s="178" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="136"/>
       <c r="E26" s="104">
@@ -4273,20 +4181,20 @@
       </c>
       <c r="F26" s="142"/>
       <c r="G26" s="142" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" s="142"/>
       <c r="I26" s="159" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J26" s="143"/>
       <c r="K26" s="139"/>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1">
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="139"/>
       <c r="B27" s="141"/>
       <c r="C27" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="136"/>
       <c r="E27" s="104">
@@ -4295,7 +4203,7 @@
       </c>
       <c r="F27" s="142"/>
       <c r="G27" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="142"/>
       <c r="I27" s="155" t="s">
@@ -4304,37 +4212,37 @@
       <c r="J27" s="143"/>
       <c r="K27" s="139"/>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="111"/>
       <c r="C28" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>71</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="114">
         <v>0.1</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" s="107"/>
       <c r="I28" s="154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J28" s="113"/>
       <c r="K28" s="139"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1">
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="111"/>
       <c r="C29" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="E29" s="114">
         <v>0</v>
@@ -4347,7 +4255,7 @@
       </c>
       <c r="J29" s="113"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="110"/>
       <c r="B30" s="111"/>
       <c r="C30" s="107"/>
@@ -4359,7 +4267,7 @@
       <c r="I30" s="115"/>
       <c r="J30" s="113"/>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1">
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="111"/>
       <c r="C31" s="13" t="s">
@@ -4372,7 +4280,7 @@
       <c r="I31" s="115"/>
       <c r="J31" s="113"/>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="111"/>
       <c r="C32" s="107" t="s">
@@ -4387,19 +4295,19 @@
       </c>
       <c r="F32" s="107"/>
       <c r="G32" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="107"/>
-      <c r="I32" s="194" t="s">
-        <v>164</v>
+      <c r="I32" s="185" t="s">
+        <v>163</v>
       </c>
       <c r="J32" s="113"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="111"/>
       <c r="C33" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1</v>
@@ -4410,22 +4318,22 @@
       </c>
       <c r="F33" s="107"/>
       <c r="G33" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" s="107"/>
-      <c r="I33" s="194" t="s">
-        <v>113</v>
+      <c r="I33" s="185" t="s">
+        <v>112</v>
       </c>
       <c r="J33" s="113"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="110"/>
       <c r="B34" s="111"/>
       <c r="C34" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="E34" s="133">
         <f>'Research data'!H33</f>
@@ -4433,15 +4341,15 @@
       </c>
       <c r="F34" s="107"/>
       <c r="G34" s="107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="107"/>
-      <c r="I34" s="194" t="s">
-        <v>113</v>
+      <c r="I34" s="185" t="s">
+        <v>112</v>
       </c>
       <c r="J34" s="113"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="111"/>
       <c r="C35" s="107" t="s">
@@ -4461,7 +4369,7 @@
       </c>
       <c r="J35" s="113"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="118"/>
       <c r="C36" s="119"/>
@@ -4473,7 +4381,7 @@
       <c r="I36" s="119"/>
       <c r="J36" s="120"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="110"/>
       <c r="B37" s="110"/>
       <c r="C37" s="110"/>
@@ -4485,7 +4393,7 @@
       <c r="I37" s="110"/>
       <c r="J37" s="110"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="110"/>
       <c r="B38" s="110"/>
       <c r="C38" s="110"/>
@@ -4497,7 +4405,7 @@
       <c r="I38" s="110"/>
       <c r="J38" s="110"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="110"/>
       <c r="B39" s="110"/>
       <c r="C39" s="110"/>
@@ -4509,7 +4417,7 @@
       <c r="I39" s="110"/>
       <c r="J39" s="110"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="110"/>
       <c r="B40" s="110"/>
       <c r="E40" s="110"/>
@@ -4519,7 +4427,7 @@
       <c r="I40" s="110"/>
       <c r="J40" s="110"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="110"/>
       <c r="B41" s="110"/>
       <c r="C41" s="110"/>
@@ -4531,7 +4439,7 @@
       <c r="I41" s="110"/>
       <c r="J41" s="110"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="110"/>
       <c r="B42" s="110"/>
       <c r="C42" s="110"/>
@@ -4543,7 +4451,7 @@
       <c r="I42" s="110"/>
       <c r="J42" s="110"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="110"/>
       <c r="B43" s="110"/>
       <c r="C43" s="110"/>
@@ -4555,7 +4463,7 @@
       <c r="I43" s="110"/>
       <c r="J43" s="110"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="110"/>
       <c r="B44" s="110"/>
       <c r="C44" s="110"/>
@@ -4567,55 +4475,18 @@
       <c r="I44" s="110"/>
       <c r="J44" s="110"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="110"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4630,30 +4501,30 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="23.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" style="42" customWidth="1"/>
     <col min="15" max="15" width="11" style="42" customWidth="1"/>
-    <col min="16" max="16" width="2.5" style="42" customWidth="1"/>
-    <col min="17" max="17" width="22.375" style="42" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="42"/>
+    <col min="16" max="16" width="2.42578125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="42" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="16" thickBot="1"/>
-    <row r="3" spans="1:17">
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4671,7 +4542,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1">
+    <row r="4" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="90" t="s">
         <v>19</v>
@@ -4683,22 +4554,22 @@
       </c>
       <c r="G4" s="90"/>
       <c r="H4" s="90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K4" s="90"/>
       <c r="L4" s="90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M4" s="90"/>
       <c r="N4" s="90" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -4713,7 +4584,7 @@
       <c r="M5" s="49"/>
       <c r="N5" s="55"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -4730,10 +4601,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="53"/>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
-      <c r="C7" s="188" t="s">
-        <v>129</v>
+      <c r="C7" s="179" t="s">
+        <v>128</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -4752,10 +4623,10 @@
       <c r="M7" s="49"/>
       <c r="N7" s="151"/>
     </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1">
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
-      <c r="C8" s="188" t="s">
-        <v>61</v>
+      <c r="C8" s="179" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -4774,10 +4645,10 @@
       <c r="M8" s="49"/>
       <c r="N8" s="151"/>
     </row>
-    <row r="9" spans="1:17" ht="16" thickBot="1">
+    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
-      <c r="C9" s="188" t="s">
-        <v>130</v>
+      <c r="C9" s="179" t="s">
+        <v>129</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -4798,15 +4669,15 @@
       <c r="M9" s="49"/>
       <c r="N9" s="151"/>
     </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1">
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="176" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="103">
@@ -4822,11 +4693,11 @@
       <c r="M10" s="49"/>
       <c r="N10" s="151"/>
     </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1">
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="111"/>
       <c r="C11" s="107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
@@ -4843,18 +4714,18 @@
       <c r="L11" s="110"/>
       <c r="M11" s="110"/>
       <c r="N11" s="146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O11" s="110"/>
     </row>
-    <row r="12" spans="1:17" ht="16" thickBot="1">
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="111"/>
       <c r="C12" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="107" t="s">
         <v>91</v>
-      </c>
-      <c r="F12" s="107" t="s">
-        <v>92</v>
       </c>
       <c r="H12" s="128">
         <f>Notes!E155</f>
@@ -4867,11 +4738,11 @@
       <c r="M12" s="116"/>
       <c r="N12" s="146"/>
     </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="111"/>
       <c r="C13" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -4890,11 +4761,11 @@
       <c r="N13" s="146"/>
       <c r="O13" s="110"/>
     </row>
-    <row r="14" spans="1:17" ht="16" thickBot="1">
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="111"/>
       <c r="C14" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4912,11 +4783,11 @@
       <c r="N14" s="146"/>
       <c r="O14" s="110"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="111"/>
       <c r="C15" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -4934,11 +4805,11 @@
       <c r="N15" s="146"/>
       <c r="O15" s="110"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="108"/>
       <c r="E16" s="108"/>
@@ -4956,7 +4827,7 @@
       <c r="N16" s="146"/>
       <c r="O16" s="110"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
       <c r="C17" s="51"/>
       <c r="D17" s="108"/>
@@ -4970,7 +4841,7 @@
       <c r="M17" s="49"/>
       <c r="N17" s="56"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="110"/>
       <c r="B18" s="111"/>
       <c r="C18" s="34"/>
@@ -4983,7 +4854,7 @@
       <c r="M18" s="124"/>
       <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:17" ht="16" thickBot="1">
+    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="111"/>
       <c r="C19" s="12" t="s">
@@ -4998,11 +4869,11 @@
       <c r="M19" s="124"/>
       <c r="N19" s="106"/>
     </row>
-    <row r="20" spans="1:17" ht="16" thickBot="1">
+    <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
@@ -5023,14 +4894,14 @@
       <c r="M20" s="124"/>
       <c r="N20" s="151"/>
     </row>
-    <row r="21" spans="1:17" ht="16" thickBot="1">
+    <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="123">
         <f>L21</f>
@@ -5044,11 +4915,11 @@
       <c r="M21" s="124"/>
       <c r="N21" s="151"/>
     </row>
-    <row r="22" spans="1:17" ht="16" thickBot="1">
+    <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="111"/>
       <c r="C22" s="127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="129" t="s">
         <v>20</v>
@@ -5060,17 +4931,17 @@
       <c r="L22" s="124"/>
       <c r="M22" s="124"/>
       <c r="N22" s="151" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="111"/>
       <c r="C23" s="127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="122" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="156">
         <v>0</v>
@@ -5079,15 +4950,15 @@
       <c r="L23" s="125"/>
       <c r="M23" s="116"/>
       <c r="N23" s="151" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="147"/>
     </row>
-    <row r="24" spans="1:17" ht="16" thickBot="1">
+    <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="111"/>
       <c r="C24" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>20</v>
@@ -5102,11 +4973,11 @@
       <c r="M24" s="116"/>
       <c r="N24" s="151"/>
     </row>
-    <row r="25" spans="1:17" ht="16" thickBot="1">
+    <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="111"/>
       <c r="C25" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>20</v>
@@ -5125,11 +4996,11 @@
       <c r="M25" s="116"/>
       <c r="N25" s="151"/>
     </row>
-    <row r="26" spans="1:17" ht="16" thickBot="1">
+    <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="111"/>
       <c r="C26" s="140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="140" t="s">
         <v>20</v>
@@ -5142,18 +5013,18 @@
       <c r="K26" s="116"/>
       <c r="L26" s="116"/>
       <c r="M26" s="116"/>
-      <c r="N26" s="196" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16" thickBot="1">
+      <c r="N26" s="187" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="111"/>
       <c r="C27" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="140" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H27" s="128">
         <v>0</v>
@@ -5165,14 +5036,14 @@
       <c r="M27" s="116"/>
       <c r="N27" s="151"/>
     </row>
-    <row r="28" spans="1:17" ht="16" thickBot="1">
+    <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="111"/>
       <c r="C28" s="140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="128">
         <v>0</v>
@@ -5184,11 +5055,11 @@
       <c r="M28" s="116"/>
       <c r="N28" s="151"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="45"/>
       <c r="N29" s="48"/>
     </row>
-    <row r="30" spans="1:17" ht="16" thickBot="1">
+    <row r="30" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="111"/>
       <c r="C30" s="34" t="s">
@@ -5203,7 +5074,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="56"/>
     </row>
-    <row r="31" spans="1:17" ht="16" thickBot="1">
+    <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="111"/>
       <c r="C31" s="126" t="s">
@@ -5222,14 +5093,14 @@
       <c r="L31" s="124"/>
       <c r="M31" s="125"/>
       <c r="N31" s="151" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16" thickBot="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="111"/>
       <c r="C32" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="122" t="s">
         <v>1</v>
@@ -5243,18 +5114,18 @@
       <c r="K32" s="125"/>
       <c r="L32" s="125"/>
       <c r="M32" s="125"/>
-      <c r="N32" s="196" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="16" thickBot="1">
+      <c r="N32" s="187" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="111"/>
       <c r="C33" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="152">
         <f>Notes!E160</f>
@@ -5266,7 +5137,7 @@
       <c r="M33" s="11"/>
       <c r="N33" s="151"/>
     </row>
-    <row r="34" spans="1:14" ht="16" thickBot="1">
+    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="110"/>
       <c r="B34" s="111"/>
       <c r="C34" s="101" t="s">
@@ -5278,77 +5149,77 @@
       </c>
       <c r="N34" s="151"/>
     </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1">
+    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="111"/>
       <c r="C35" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="114">
         <v>0</v>
       </c>
       <c r="N35" s="153" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="16" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="111"/>
       <c r="C36" s="107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="114">
         <v>0</v>
       </c>
       <c r="N36" s="153" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="111"/>
       <c r="C37" s="107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H37" s="114">
         <v>0</v>
       </c>
       <c r="N37" s="153" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="16" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="111"/>
       <c r="C38" s="107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H38" s="114">
         <v>0</v>
       </c>
       <c r="N38" s="153" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="16" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="111"/>
       <c r="C39" s="107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="114">
         <v>0</v>
       </c>
       <c r="N39" s="153" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="110"/>
       <c r="B40" s="111"/>
       <c r="N40" s="132"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="110"/>
       <c r="B41" s="111"/>
       <c r="C41" s="48"/>
@@ -5356,11 +5227,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5375,22 +5241,22 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="58" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="58" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="62" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="58"/>
+    <col min="1" max="1" width="3.42578125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="58" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="59"/>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -5401,7 +5267,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="61"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5414,7 +5280,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -5425,7 +5291,7 @@
       <c r="I4" s="64"/>
       <c r="J4" s="57"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="65"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5440,19 +5306,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="61"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5463,18 +5329,18 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="61"/>
       <c r="C7" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="190" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="181" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="190" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="191">
+      <c r="F7" s="182">
         <v>41913</v>
       </c>
       <c r="G7" s="57">
@@ -5484,22 +5350,22 @@
         <v>42412</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="61"/>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="180" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="61"/>
+      <c r="C9" s="180" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="61"/>
-      <c r="C9" s="189" t="s">
-        <v>146</v>
       </c>
       <c r="D9" s="149"/>
       <c r="E9" s="149"/>
@@ -5509,19 +5375,19 @@
       <c r="I9" s="99"/>
       <c r="J9" s="98"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="61"/>
-      <c r="C11" s="192" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="190" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="190" t="s">
-        <v>150</v>
+      <c r="C11" s="183" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="181" t="s">
+        <v>149</v>
       </c>
       <c r="F11" s="57">
         <v>2014</v>
@@ -5533,16 +5399,16 @@
         <v>42412</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="61"/>
       <c r="C12" s="130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="149"/>
@@ -5551,23 +5417,23 @@
       <c r="H12" s="100"/>
       <c r="I12" s="57"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="61"/>
       <c r="C13" s="131" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="61"/>
-      <c r="C14" s="189" t="s">
-        <v>101</v>
+      <c r="C14" s="180" t="s">
+        <v>100</v>
       </c>
       <c r="D14" s="147"/>
       <c r="E14" s="147"/>
       <c r="H14" s="100"/>
       <c r="J14" s="147"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="61"/>
       <c r="E15" s="105"/>
       <c r="F15" s="57"/>
@@ -5575,7 +5441,7 @@
       <c r="H15" s="100"/>
       <c r="I15" s="115"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="61"/>
       <c r="C16" s="131"/>
       <c r="E16" s="105"/>
@@ -5584,7 +5450,7 @@
       <c r="H16" s="100"/>
       <c r="I16" s="115"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="61"/>
       <c r="C17" s="147"/>
       <c r="D17" s="147"/>
@@ -5593,14 +5459,14 @@
       <c r="I17" s="115"/>
       <c r="J17" s="97"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="61"/>
       <c r="C18" s="147"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="61"/>
       <c r="C20" s="157"/>
       <c r="D20" s="147"/>
@@ -5610,33 +5476,33 @@
       <c r="H20" s="100"/>
       <c r="J20" s="149"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="61"/>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="61"/>
       <c r="I22" s="99"/>
       <c r="J22" s="57"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="61"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
       <c r="C25" s="110"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="61"/>
       <c r="C26" s="130"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="61"/>
       <c r="C27" s="131"/>
       <c r="D27" s="57"/>
@@ -5645,7 +5511,7 @@
       <c r="G27" s="57"/>
       <c r="H27" s="57"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
       <c r="C28" s="130"/>
       <c r="D28" s="57"/>
@@ -5654,7 +5520,7 @@
       <c r="G28" s="57"/>
       <c r="H28" s="57"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="61"/>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
@@ -5662,31 +5528,26 @@
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="61"/>
       <c r="C30" s="130"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="61"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="61"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="61"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="61"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5701,25 +5562,25 @@
       <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="66" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="66" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="66" customWidth="1"/>
     <col min="4" max="4" width="4" style="66" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="66" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="66" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="66"/>
-    <col min="14" max="14" width="7.125" style="66" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="66"/>
-    <col min="16" max="16" width="16.5" style="66" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="66"/>
-    <col min="18" max="18" width="55.375" style="66" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="66"/>
+    <col min="5" max="5" width="13.140625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="66" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="66"/>
+    <col min="14" max="14" width="7.140625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="66"/>
+    <col min="16" max="16" width="16.42578125" style="66" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="66"/>
+    <col min="18" max="18" width="55.42578125" style="66" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" thickBot="1"/>
-    <row r="2" spans="1:19">
+    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -5734,14 +5595,14 @@
       <c r="M2" s="68"/>
       <c r="N2" s="69"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="95"/>
       <c r="C3" s="74" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>26</v>
@@ -5756,7 +5617,7 @@
       <c r="M3" s="71"/>
       <c r="N3" s="96"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -5772,7 +5633,7 @@
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="72"/>
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
@@ -5787,7 +5648,7 @@
       <c r="N5" s="73"/>
       <c r="O5" s="73"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
@@ -5797,7 +5658,7 @@
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="72"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
@@ -5808,7 +5669,7 @@
       <c r="N7" s="73"/>
       <c r="O7" s="73"/>
     </row>
-    <row r="8" spans="1:19" ht="16" thickBot="1">
+    <row r="8" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
@@ -5818,17 +5679,17 @@
         <v>120.1</v>
       </c>
       <c r="I8" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="66" t="s">
         <v>110</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>111</v>
       </c>
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
       <c r="O8" s="73"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
@@ -5844,7 +5705,7 @@
       <c r="R9" s="162"/>
       <c r="S9" s="163"/>
     </row>
-    <row r="10" spans="1:19" ht="18">
+    <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -5853,7 +5714,7 @@
       <c r="G10" s="73"/>
       <c r="L10" s="164"/>
       <c r="M10" s="165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" s="165" t="s">
         <v>8</v>
@@ -5865,14 +5726,14 @@
         <v>7</v>
       </c>
       <c r="Q10" s="165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" s="165" t="s">
         <v>0</v>
       </c>
       <c r="S10" s="166"/>
     </row>
-    <row r="11" spans="1:19" ht="19" thickBot="1">
+    <row r="11" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
@@ -5892,7 +5753,7 @@
       <c r="R11" s="168"/>
       <c r="S11" s="169"/>
     </row>
-    <row r="12" spans="1:19" ht="19" thickBot="1">
+    <row r="12" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -5904,34 +5765,34 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="73"/>
       <c r="L12" s="167"/>
       <c r="M12" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="146" t="s">
         <v>56</v>
-      </c>
-      <c r="N12" s="146" t="s">
-        <v>57</v>
       </c>
       <c r="O12" s="170">
         <v>1.0980000000000001</v>
       </c>
       <c r="P12" s="146" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="171">
         <v>42221</v>
       </c>
       <c r="R12" s="159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S12" s="169"/>
     </row>
-    <row r="13" spans="1:19" ht="16" thickBot="1">
+    <row r="13" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
@@ -5951,7 +5812,7 @@
       <c r="R13" s="173"/>
       <c r="S13" s="174"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
@@ -5967,7 +5828,7 @@
       <c r="N14" s="73"/>
       <c r="O14" s="73"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
@@ -5983,7 +5844,7 @@
       <c r="N15" s="73"/>
       <c r="O15" s="73"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
@@ -5995,7 +5856,7 @@
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="72"/>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
@@ -6007,7 +5868,7 @@
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
@@ -6019,7 +5880,7 @@
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
@@ -6035,10 +5896,10 @@
       <c r="N19" s="73"/>
       <c r="O19" s="73"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="72"/>
       <c r="C20" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="73"/>
       <c r="H20" s="73"/>
@@ -6050,10 +5911,10 @@
       <c r="N20" s="73"/>
       <c r="O20" s="73"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="72"/>
       <c r="C21" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="73"/>
       <c r="H21" s="73"/>
@@ -6065,7 +5926,7 @@
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="72"/>
       <c r="J22" s="73"/>
       <c r="K22" s="73"/>
@@ -6074,7 +5935,7 @@
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="72"/>
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
@@ -6083,13 +5944,13 @@
       <c r="N23" s="73"/>
       <c r="O23" s="73"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="E24" s="66">
         <v>650000</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="66" t="s">
         <v>22</v>
@@ -6101,7 +5962,7 @@
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="72"/>
       <c r="E25" s="66">
         <f>E24/$H$12</f>
@@ -6121,7 +5982,7 @@
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="72"/>
       <c r="J26" s="73"/>
       <c r="K26" s="73"/>
@@ -6130,10 +5991,10 @@
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="72"/>
       <c r="E27" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J27" s="73"/>
       <c r="K27" s="73"/>
@@ -6142,7 +6003,7 @@
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="72"/>
       <c r="J28" s="73"/>
       <c r="K28" s="73"/>
@@ -6151,16 +6012,16 @@
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="E29" s="66">
         <v>350000</v>
       </c>
       <c r="F29" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" s="148"/>
       <c r="J29" s="73"/>
@@ -6170,7 +6031,7 @@
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="E30" s="66">
         <f>E29/$H$12</f>
@@ -6190,7 +6051,7 @@
       <c r="N30" s="73"/>
       <c r="O30" s="73"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="72"/>
       <c r="J31" s="73"/>
       <c r="K31" s="73"/>
@@ -6199,7 +6060,7 @@
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="72"/>
       <c r="J32" s="73"/>
       <c r="K32" s="73"/>
@@ -6208,7 +6069,7 @@
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="72"/>
       <c r="J33" s="73"/>
       <c r="K33" s="73"/>
@@ -6217,7 +6078,7 @@
       <c r="N33" s="73"/>
       <c r="O33" s="73"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="J34" s="73"/>
       <c r="K34" s="73"/>
@@ -6226,7 +6087,7 @@
       <c r="N34" s="73"/>
       <c r="O34" s="73"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="72"/>
       <c r="J35" s="73"/>
       <c r="K35" s="73"/>
@@ -6235,7 +6096,7 @@
       <c r="N35" s="73"/>
       <c r="O35" s="73"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="J36" s="73"/>
       <c r="K36" s="73"/>
@@ -6244,7 +6105,7 @@
       <c r="N36" s="73"/>
       <c r="O36" s="73"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="J37" s="73"/>
       <c r="K37" s="73"/>
@@ -6253,7 +6114,7 @@
       <c r="N37" s="73"/>
       <c r="O37" s="73"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="72"/>
       <c r="J38" s="73"/>
       <c r="K38" s="73"/>
@@ -6262,7 +6123,7 @@
       <c r="N38" s="73"/>
       <c r="O38" s="73"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
@@ -6271,7 +6132,7 @@
       <c r="N39" s="73"/>
       <c r="O39" s="73"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
@@ -6280,7 +6141,7 @@
       <c r="N40" s="73"/>
       <c r="O40" s="73"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="72"/>
       <c r="J41" s="73"/>
       <c r="K41" s="73"/>
@@ -6289,10 +6150,10 @@
       <c r="N41" s="73"/>
       <c r="O41" s="73"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="72"/>
       <c r="E42" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K42" s="73"/>
       <c r="L42" s="73"/>
@@ -6300,7 +6161,7 @@
       <c r="N42" s="73"/>
       <c r="O42" s="73"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="72"/>
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
@@ -6308,7 +6169,7 @@
       <c r="N43" s="73"/>
       <c r="O43" s="73"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="72"/>
       <c r="C44" s="73"/>
       <c r="E44" s="66">
@@ -6316,10 +6177,10 @@
         <v>600</v>
       </c>
       <c r="F44" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G44" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K44" s="73"/>
       <c r="L44" s="73"/>
@@ -6327,7 +6188,7 @@
       <c r="N44" s="73"/>
       <c r="O44" s="73"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="72"/>
       <c r="C45" s="73"/>
       <c r="E45" s="66">
@@ -6335,7 +6196,7 @@
         <v>16.990107955200003</v>
       </c>
       <c r="F45" s="66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K45" s="73"/>
       <c r="L45" s="73"/>
@@ -6343,7 +6204,7 @@
       <c r="N45" s="73"/>
       <c r="O45" s="73"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="72"/>
       <c r="C46" s="73"/>
       <c r="E46" s="73">
@@ -6351,7 +6212,7 @@
         <v>0.28316846592000006</v>
       </c>
       <c r="F46" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K46" s="73"/>
       <c r="L46" s="73"/>
@@ -6359,7 +6220,7 @@
       <c r="N46" s="73"/>
       <c r="O46" s="73"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="72"/>
       <c r="C47" s="73"/>
       <c r="F47" s="73"/>
@@ -6369,17 +6230,17 @@
       <c r="N47" s="73"/>
       <c r="O47" s="73"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="72"/>
       <c r="E48" s="66">
         <f>0.000833</f>
         <v>8.3299999999999997E-4</v>
       </c>
       <c r="F48" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="66" t="s">
         <v>126</v>
-      </c>
-      <c r="G48" s="66" t="s">
-        <v>127</v>
       </c>
       <c r="K48" s="73"/>
       <c r="L48" s="73"/>
@@ -6387,14 +6248,14 @@
       <c r="N48" s="73"/>
       <c r="O48" s="73"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="72"/>
       <c r="E49" s="66">
         <f>38.018007203</f>
         <v>38.018007203000003</v>
       </c>
       <c r="F49" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G49" s="66" t="str">
         <f>G48</f>
@@ -6406,7 +6267,7 @@
       <c r="N49" s="73"/>
       <c r="O49" s="73"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="72"/>
       <c r="C50" s="73"/>
       <c r="J50"/>
@@ -6416,7 +6277,7 @@
       <c r="N50" s="73"/>
       <c r="O50" s="73"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="72"/>
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
@@ -6425,10 +6286,10 @@
         <v>8.9676621472485163</v>
       </c>
       <c r="F51" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
@@ -6436,7 +6297,7 @@
       <c r="N51" s="73"/>
       <c r="O51" s="73"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="72"/>
       <c r="C52" s="158"/>
       <c r="D52" s="73"/>
@@ -6446,7 +6307,7 @@
       <c r="N52" s="73"/>
       <c r="O52" s="73"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="72"/>
       <c r="D53" s="73"/>
       <c r="K53" s="73"/>
@@ -6455,7 +6316,7 @@
       <c r="N53" s="73"/>
       <c r="O53" s="73"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="72"/>
       <c r="K54" s="73"/>
       <c r="L54" s="73"/>
@@ -6463,7 +6324,7 @@
       <c r="N54" s="73"/>
       <c r="O54" s="73"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="72"/>
       <c r="K55" s="73"/>
       <c r="L55" s="73"/>
@@ -6471,7 +6332,7 @@
       <c r="N55" s="73"/>
       <c r="O55" s="73"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="72"/>
       <c r="K56" s="73"/>
       <c r="L56" s="73"/>
@@ -6479,7 +6340,7 @@
       <c r="N56" s="73"/>
       <c r="O56" s="73"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="72"/>
       <c r="D57" s="73"/>
       <c r="K57" s="73"/>
@@ -6488,7 +6349,7 @@
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="72"/>
       <c r="K58" s="73"/>
       <c r="L58" s="73"/>
@@ -6496,7 +6357,7 @@
       <c r="N58" s="73"/>
       <c r="O58" s="73"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="72"/>
       <c r="K59" s="73"/>
       <c r="L59" s="73"/>
@@ -6504,7 +6365,7 @@
       <c r="N59" s="73"/>
       <c r="O59" s="73"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="72"/>
       <c r="K60" s="73"/>
       <c r="L60" s="73"/>
@@ -6512,7 +6373,7 @@
       <c r="N60" s="73"/>
       <c r="O60" s="73"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="72"/>
       <c r="K61" s="73"/>
       <c r="L61" s="73"/>
@@ -6520,7 +6381,7 @@
       <c r="N61" s="73"/>
       <c r="O61" s="73"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="72"/>
       <c r="K62" s="73"/>
       <c r="L62" s="73"/>
@@ -6528,7 +6389,7 @@
       <c r="N62" s="73"/>
       <c r="O62" s="73"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="72"/>
       <c r="K63" s="73"/>
       <c r="L63" s="73"/>
@@ -6536,10 +6397,10 @@
       <c r="N63" s="73"/>
       <c r="O63" s="73"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="72"/>
       <c r="C64" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K64" s="73"/>
       <c r="L64" s="73"/>
@@ -6547,7 +6408,7 @@
       <c r="N64" s="73"/>
       <c r="O64" s="73"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="72"/>
       <c r="K65" s="73"/>
       <c r="L65" s="73"/>
@@ -6555,7 +6416,7 @@
       <c r="N65" s="73"/>
       <c r="O65" s="73"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="72"/>
       <c r="K66" s="73"/>
       <c r="L66" s="73"/>
@@ -6563,7 +6424,7 @@
       <c r="N66" s="73"/>
       <c r="O66" s="73"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="72"/>
       <c r="K67" s="73"/>
       <c r="L67" s="73"/>
@@ -6571,7 +6432,7 @@
       <c r="N67" s="73"/>
       <c r="O67" s="73"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="72"/>
       <c r="K68" s="73"/>
       <c r="L68" s="73"/>
@@ -6579,7 +6440,7 @@
       <c r="N68" s="73"/>
       <c r="O68" s="73"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="72"/>
       <c r="C69" s="73"/>
       <c r="K69" s="73"/>
@@ -6588,7 +6449,7 @@
       <c r="N69" s="73"/>
       <c r="O69" s="73"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="72"/>
       <c r="C70" s="73"/>
       <c r="L70" s="73"/>
@@ -6596,7 +6457,7 @@
       <c r="N70" s="73"/>
       <c r="O70" s="73"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="72"/>
       <c r="C71" s="73"/>
       <c r="L71" s="73"/>
@@ -6604,7 +6465,7 @@
       <c r="N71" s="73"/>
       <c r="O71" s="73"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="72"/>
       <c r="C72" s="73"/>
       <c r="L72" s="73"/>
@@ -6612,7 +6473,7 @@
       <c r="N72" s="73"/>
       <c r="O72" s="73"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="72"/>
       <c r="C73" s="73"/>
       <c r="K73" s="73"/>
@@ -6621,7 +6482,7 @@
       <c r="N73" s="73"/>
       <c r="O73" s="73"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="72"/>
       <c r="C74" s="73"/>
       <c r="K74" s="73"/>
@@ -6630,7 +6491,7 @@
       <c r="N74" s="73"/>
       <c r="O74" s="73"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="72"/>
       <c r="K75" s="73"/>
       <c r="L75" s="73"/>
@@ -6638,113 +6499,113 @@
       <c r="N75" s="73"/>
       <c r="O75" s="73"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="72"/>
       <c r="L76" s="73"/>
       <c r="M76" s="73"/>
       <c r="N76" s="73"/>
       <c r="O76" s="73"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="72"/>
       <c r="N77" s="73"/>
       <c r="O77" s="73"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="72"/>
       <c r="N78" s="73"/>
       <c r="O78" s="73"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="72"/>
       <c r="N79" s="73"/>
       <c r="O79" s="73"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="72"/>
       <c r="N80" s="73"/>
       <c r="O80" s="73"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="72"/>
       <c r="N81" s="73"/>
       <c r="O81" s="73"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="72"/>
       <c r="N82" s="73"/>
       <c r="O82" s="73"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="72"/>
       <c r="N83" s="73"/>
       <c r="O83" s="73"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="72"/>
       <c r="N84" s="73"/>
       <c r="O84" s="73"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="72"/>
       <c r="N85" s="73"/>
       <c r="O85" s="73"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="72"/>
       <c r="N86" s="73"/>
       <c r="O86" s="73"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="72"/>
       <c r="N87" s="73"/>
       <c r="O87" s="73"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="72"/>
       <c r="N88" s="73"/>
       <c r="O88" s="73"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="72"/>
       <c r="N89" s="73"/>
       <c r="O89" s="73"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="72"/>
       <c r="N90" s="73"/>
       <c r="O90" s="73"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="72"/>
       <c r="N91" s="73"/>
       <c r="O91" s="73"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="72"/>
       <c r="N92" s="73"/>
       <c r="O92" s="73"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="72"/>
       <c r="N93" s="73"/>
       <c r="O93" s="73"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="72"/>
       <c r="E94" s="66">
         <v>56700</v>
       </c>
       <c r="F94" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G94" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N94" s="73"/>
       <c r="O94" s="73"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="72"/>
       <c r="E95" s="66">
         <v>63000</v>
@@ -6756,7 +6617,7 @@
       <c r="N95" s="73"/>
       <c r="O95" s="73"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="72"/>
       <c r="E96" s="66">
         <f>AVERAGE(E94:E95)</f>
@@ -6767,12 +6628,12 @@
         <v>dollar/y</v>
       </c>
       <c r="G96" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N96" s="73"/>
       <c r="O96" s="73"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="72"/>
       <c r="E97" s="66">
         <f>E96*600/700</f>
@@ -6783,756 +6644,751 @@
         <v>dollar/y</v>
       </c>
       <c r="G97" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N97" s="73"/>
       <c r="O97" s="73"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="72"/>
       <c r="N98" s="73"/>
       <c r="O98" s="73"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="72"/>
       <c r="E99" s="66">
         <f>E97/$H$12</f>
         <v>46721.311475409835</v>
       </c>
       <c r="F99" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G99" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N99" s="73"/>
       <c r="O99" s="73"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="72"/>
       <c r="N100" s="73"/>
       <c r="O100" s="73"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="72"/>
       <c r="C101" s="70"/>
       <c r="N101" s="73"/>
       <c r="O101" s="73"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="72"/>
       <c r="C102" s="70"/>
       <c r="N102" s="73"/>
       <c r="O102" s="73"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="72"/>
       <c r="N103" s="73"/>
       <c r="O103" s="73"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="72"/>
       <c r="N104" s="73"/>
       <c r="O104" s="73"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="72"/>
       <c r="N105" s="73"/>
       <c r="O105" s="73"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="72"/>
       <c r="N106" s="73"/>
       <c r="O106" s="73"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="72"/>
       <c r="N107" s="73"/>
       <c r="O107" s="73"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="72"/>
       <c r="N108" s="73"/>
       <c r="O108" s="73"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="72"/>
       <c r="N109" s="73"/>
       <c r="O109" s="73"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="72"/>
       <c r="N110" s="73"/>
       <c r="O110" s="73"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="72"/>
       <c r="N111" s="73"/>
       <c r="O111" s="73"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="72"/>
       <c r="N112" s="73"/>
       <c r="O112" s="73"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="72"/>
       <c r="N113" s="73"/>
       <c r="O113" s="73"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="72"/>
       <c r="N114" s="73"/>
       <c r="O114" s="73"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="72"/>
       <c r="N115" s="73"/>
       <c r="O115" s="73"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="72"/>
       <c r="N116" s="73"/>
       <c r="O116" s="73"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="72"/>
       <c r="N117" s="73"/>
       <c r="O117" s="73"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="72"/>
       <c r="N118" s="73"/>
       <c r="O118" s="73"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="72"/>
       <c r="N119" s="73"/>
       <c r="O119" s="73"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="72"/>
       <c r="N120" s="73"/>
       <c r="O120" s="73"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="72"/>
       <c r="C121" s="70"/>
       <c r="N121" s="73"/>
       <c r="O121" s="73"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="72"/>
       <c r="N122" s="73"/>
       <c r="O122" s="73"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="72"/>
       <c r="N123" s="73"/>
       <c r="O123" s="73"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="72"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="72"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="72"/>
     </row>
-    <row r="127" spans="2:15">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="72"/>
     </row>
-    <row r="128" spans="2:15">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="72"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="72"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="72"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="72"/>
       <c r="C131" s="70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="72"/>
       <c r="C132" s="70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="72"/>
       <c r="C133" s="70" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="72"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="72"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="72"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="72"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="72"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="72"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="72"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="72"/>
       <c r="E141" s="66">
         <v>93.1</v>
       </c>
       <c r="F141" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G141" s="66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="72"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="72"/>
       <c r="E143" s="66">
         <f>E141/100</f>
         <v>0.93099999999999994</v>
       </c>
       <c r="G143" s="66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="72"/>
       <c r="E144" s="66">
         <f>1-E143</f>
         <v>6.9000000000000061E-2</v>
       </c>
       <c r="G144" s="66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="72"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="72"/>
       <c r="E146" s="66">
         <f>E141/100</f>
         <v>0.93099999999999994</v>
       </c>
       <c r="G146" s="66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="72"/>
       <c r="G147" s="66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="72"/>
       <c r="G148" s="66" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="72"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="72"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="72"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="72"/>
       <c r="C152" s="70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="72"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="72"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="72"/>
       <c r="E155" s="66">
         <f>18/24*8760</f>
         <v>6570</v>
       </c>
       <c r="G155" s="66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="72"/>
       <c r="G156" s="66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="72"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="72"/>
       <c r="E158" s="66">
         <v>20</v>
       </c>
       <c r="F158" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G158" s="66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="72"/>
       <c r="E159" s="66">
         <v>0.5</v>
       </c>
       <c r="F159" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G159" s="66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="72"/>
       <c r="E160" s="66">
         <f>10*10/1000000</f>
         <v>1E-4</v>
       </c>
       <c r="F160" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G160" s="66" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="2:19">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B161" s="72"/>
     </row>
-    <row r="162" spans="2:19">
+    <row r="162" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B162" s="72"/>
     </row>
-    <row r="163" spans="2:19">
+    <row r="163" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B163" s="72"/>
     </row>
-    <row r="164" spans="2:19">
+    <row r="164" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B164" s="72"/>
       <c r="C164" s="70"/>
     </row>
-    <row r="165" spans="2:19">
+    <row r="165" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B165" s="72"/>
     </row>
-    <row r="166" spans="2:19">
+    <row r="166" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B166" s="72"/>
     </row>
-    <row r="167" spans="2:19">
+    <row r="167" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B167" s="72"/>
     </row>
-    <row r="168" spans="2:19">
+    <row r="168" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B168" s="72"/>
     </row>
-    <row r="169" spans="2:19">
+    <row r="169" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B169" s="72"/>
     </row>
-    <row r="170" spans="2:19">
+    <row r="170" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B170" s="72"/>
       <c r="L170" s="73"/>
     </row>
-    <row r="171" spans="2:19">
+    <row r="171" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B171" s="72"/>
       <c r="L171" s="73"/>
     </row>
-    <row r="172" spans="2:19">
+    <row r="172" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B172" s="72"/>
       <c r="L172" s="73"/>
       <c r="R172" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="S172" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="S172" s="66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="173" spans="2:19">
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B173" s="72"/>
       <c r="L173" s="73"/>
     </row>
-    <row r="174" spans="2:19">
+    <row r="174" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B174" s="72"/>
     </row>
-    <row r="175" spans="2:19">
+    <row r="175" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B175" s="72"/>
     </row>
-    <row r="176" spans="2:19">
+    <row r="176" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B176" s="72"/>
       <c r="C176" s="70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="177" spans="2:19">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B177" s="72"/>
     </row>
-    <row r="178" spans="2:19">
+    <row r="178" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B178" s="72"/>
     </row>
-    <row r="179" spans="2:19">
+    <row r="179" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B179" s="72"/>
     </row>
-    <row r="180" spans="2:19">
+    <row r="180" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B180" s="72"/>
       <c r="C180" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L180" s="73"/>
     </row>
-    <row r="181" spans="2:19">
+    <row r="181" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B181" s="72"/>
       <c r="C181" s="70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L181" s="73"/>
     </row>
-    <row r="182" spans="2:19">
+    <row r="182" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B182" s="72"/>
       <c r="E182" s="73"/>
       <c r="L182" s="73"/>
       <c r="R182" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="S182" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="S182" s="66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="183" spans="2:19">
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B183" s="72"/>
       <c r="F183" s="73"/>
       <c r="G183" s="73"/>
       <c r="H183" s="73"/>
       <c r="L183" s="73"/>
     </row>
-    <row r="184" spans="2:19">
+    <row r="184" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B184" s="72"/>
       <c r="C184" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E184" s="73"/>
       <c r="H184" s="73"/>
     </row>
-    <row r="185" spans="2:19">
+    <row r="185" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B185" s="72"/>
       <c r="F185" s="73"/>
       <c r="G185" s="73"/>
       <c r="H185" s="73"/>
     </row>
-    <row r="186" spans="2:19">
+    <row r="186" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B186" s="72"/>
     </row>
-    <row r="187" spans="2:19">
+    <row r="187" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B187" s="72"/>
     </row>
-    <row r="188" spans="2:19">
+    <row r="188" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B188" s="72"/>
       <c r="D188" s="73"/>
     </row>
-    <row r="189" spans="2:19">
+    <row r="189" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B189" s="72"/>
       <c r="D189" s="73"/>
     </row>
-    <row r="190" spans="2:19">
+    <row r="190" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B190" s="72"/>
       <c r="D190" s="73"/>
       <c r="E190" s="73"/>
     </row>
-    <row r="191" spans="2:19">
+    <row r="191" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B191" s="72"/>
       <c r="D191" s="73"/>
       <c r="F191" s="73"/>
       <c r="K191" s="73"/>
     </row>
-    <row r="192" spans="2:19">
+    <row r="192" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B192" s="72"/>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" s="72"/>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="72"/>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="72"/>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="72"/>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="72"/>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="72"/>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="72"/>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="72"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="72"/>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="72"/>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="72"/>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="72"/>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="72"/>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="72"/>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="72"/>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="72"/>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="72"/>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="72"/>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="72"/>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="72"/>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="72"/>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="72"/>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="72"/>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="72"/>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="72"/>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="72"/>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="72"/>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="72"/>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="72"/>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="72"/>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="72"/>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="72"/>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="72"/>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="72"/>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="72"/>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="72"/>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="72"/>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="72"/>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="72"/>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" s="72"/>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" s="72"/>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" s="72"/>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" s="72"/>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" s="72"/>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" s="72"/>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238" s="72"/>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" s="72"/>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" s="72"/>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="72"/>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="72"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="72"/>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="72"/>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="72"/>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="72"/>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="72"/>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="72"/>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="72"/>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" s="72"/>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" s="72"/>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" s="72"/>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" s="72"/>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" s="72"/>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" s="72"/>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" s="72"/>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" s="72"/>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" s="72"/>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" s="72"/>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" s="72"/>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261" s="72"/>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" s="72"/>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" s="72"/>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" s="72"/>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" s="72"/>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266" s="72"/>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" s="72"/>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268" s="72"/>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" s="72"/>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" s="72"/>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" s="72"/>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" s="72"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="72"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" s="72"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" s="72"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_compressor_network_gas.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_compressor_network_gas.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00649BDB-5A96-2C4A-AF21-B69E2A740796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -46,10 +47,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -59,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="167">
   <si>
     <t>Source</t>
   </si>
@@ -638,11 +645,14 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -650,12 +660,19 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -915,6 +932,12 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1212,926 +1235,927 @@
   </borders>
   <cellStyleXfs count="647">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="34" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="33" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="647">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2780,13 +2804,16 @@
     <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="274"/>
+    <cellStyle name="Normal 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2804,7 +2831,13 @@
     <xdr:ext cx="3632200" cy="938719"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2881,7 +2914,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2919,7 +2958,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2957,7 +3002,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2995,7 +3046,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3577,8 +3634,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -3587,7 +3644,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
@@ -3595,24 +3652,24 @@
     <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3621,7 +3678,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -3630,7 +3687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3639,29 +3696,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="75" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="77" t="s">
         <v>28</v>
@@ -3670,33 +3727,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="77"/>
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="77" t="s">
         <v>33</v>
@@ -3705,49 +3762,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>41</v>
@@ -3760,17 +3817,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
@@ -3785,10 +3842,10 @@
     <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16" customHeight="1">
       <c r="B2" s="188" t="s">
         <v>165</v>
       </c>
@@ -3798,7 +3855,7 @@
       <c r="F2" s="189"/>
       <c r="G2" s="189"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="188"/>
       <c r="C3" s="189"/>
       <c r="D3" s="189"/>
@@ -3806,7 +3863,7 @@
       <c r="F3" s="189"/>
       <c r="G3" s="189"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" s="188"/>
       <c r="C4" s="189"/>
       <c r="D4" s="189"/>
@@ -3814,7 +3871,7 @@
       <c r="F4" s="189"/>
       <c r="G4" s="189"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="188"/>
       <c r="C5" s="189"/>
       <c r="D5" s="189"/>
@@ -3822,17 +3879,17 @@
       <c r="F5" s="189"/>
       <c r="G5" s="189"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17" thickBot="1">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3843,7 +3900,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="26" customFormat="1">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3864,7 +3921,7 @@
       </c>
       <c r="J9" s="92"/>
     </row>
-    <row r="10" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="26" customFormat="1">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3875,7 +3932,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>45</v>
@@ -3888,7 +3945,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="184" t="s">
         <v>128</v>
@@ -3907,7 +3964,7 @@
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="25"/>
       <c r="C13" s="184" t="s">
         <v>60</v>
@@ -3926,7 +3983,7 @@
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="184" t="s">
@@ -3950,7 +4007,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17" thickBot="1">
       <c r="A15" s="110"/>
       <c r="B15" s="111"/>
       <c r="C15" s="177" t="s">
@@ -3974,7 +4031,7 @@
       <c r="J15" s="113"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17" thickBot="1">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="107" t="s">
@@ -3995,7 +4052,7 @@
       <c r="J16" s="113"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="17" thickBot="1">
       <c r="B17" s="111"/>
       <c r="C17" s="107" t="s">
         <v>64</v>
@@ -4016,7 +4073,7 @@
       <c r="J17" s="113"/>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="17" thickBot="1">
       <c r="B18" s="111"/>
       <c r="C18" s="144" t="s">
         <v>97</v>
@@ -4036,7 +4093,7 @@
       </c>
       <c r="J18" s="113"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="B19" s="40"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -4046,7 +4103,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="93"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
         <v>44</v>
@@ -4059,7 +4116,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="93"/>
     </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="17" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>22</v>
@@ -4081,7 +4138,7 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
         <v>23</v>
@@ -4103,7 +4160,7 @@
       </c>
       <c r="J22" s="93"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B23" s="134"/>
       <c r="C23" s="178" t="s">
         <v>118</v>
@@ -4125,7 +4182,7 @@
       </c>
       <c r="J23" s="138"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="A24" s="139"/>
       <c r="B24" s="141"/>
       <c r="C24" s="142" t="s">
@@ -4146,7 +4203,7 @@
       </c>
       <c r="J24" s="143"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="A25" s="139"/>
       <c r="B25" s="141"/>
       <c r="C25" s="142" t="s">
@@ -4168,7 +4225,7 @@
       <c r="J25" s="143"/>
       <c r="K25" s="139"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="A26" s="139"/>
       <c r="B26" s="141"/>
       <c r="C26" s="178" t="s">
@@ -4190,7 +4247,7 @@
       <c r="J26" s="143"/>
       <c r="K26" s="139"/>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="17" thickBot="1">
       <c r="A27" s="139"/>
       <c r="B27" s="141"/>
       <c r="C27" s="142" t="s">
@@ -4212,7 +4269,7 @@
       <c r="J27" s="143"/>
       <c r="K27" s="139"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="A28" s="110"/>
       <c r="B28" s="111"/>
       <c r="C28" s="107" t="s">
@@ -4222,20 +4279,20 @@
         <v>71</v>
       </c>
       <c r="E28" s="114">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="107" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="107"/>
-      <c r="I28" s="154" t="s">
-        <v>112</v>
+      <c r="I28" s="190" t="s">
+        <v>166</v>
       </c>
       <c r="J28" s="113"/>
       <c r="K28" s="139"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="110"/>
       <c r="B29" s="111"/>
       <c r="C29" s="107" t="s">
@@ -4255,7 +4312,7 @@
       </c>
       <c r="J29" s="113"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="110"/>
       <c r="B30" s="111"/>
       <c r="C30" s="107"/>
@@ -4267,7 +4324,7 @@
       <c r="I30" s="115"/>
       <c r="J30" s="113"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="17" thickBot="1">
       <c r="A31" s="110"/>
       <c r="B31" s="111"/>
       <c r="C31" s="13" t="s">
@@ -4280,7 +4337,7 @@
       <c r="I31" s="115"/>
       <c r="J31" s="113"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="A32" s="110"/>
       <c r="B32" s="111"/>
       <c r="C32" s="107" t="s">
@@ -4303,7 +4360,7 @@
       </c>
       <c r="J32" s="113"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="110"/>
       <c r="B33" s="111"/>
       <c r="C33" s="107" t="s">
@@ -4326,7 +4383,7 @@
       </c>
       <c r="J33" s="113"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="110"/>
       <c r="B34" s="111"/>
       <c r="C34" s="107" t="s">
@@ -4349,7 +4406,7 @@
       </c>
       <c r="J34" s="113"/>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="110"/>
       <c r="B35" s="111"/>
       <c r="C35" s="107" t="s">
@@ -4369,7 +4426,7 @@
       </c>
       <c r="J35" s="113"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="110"/>
       <c r="B36" s="118"/>
       <c r="C36" s="119"/>
@@ -4381,7 +4438,7 @@
       <c r="I36" s="119"/>
       <c r="J36" s="120"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="110"/>
       <c r="B37" s="110"/>
       <c r="C37" s="110"/>
@@ -4393,7 +4450,7 @@
       <c r="I37" s="110"/>
       <c r="J37" s="110"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="110"/>
       <c r="B38" s="110"/>
       <c r="C38" s="110"/>
@@ -4405,7 +4462,7 @@
       <c r="I38" s="110"/>
       <c r="J38" s="110"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="110"/>
       <c r="B39" s="110"/>
       <c r="C39" s="110"/>
@@ -4417,7 +4474,7 @@
       <c r="I39" s="110"/>
       <c r="J39" s="110"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="110"/>
       <c r="B40" s="110"/>
       <c r="E40" s="110"/>
@@ -4427,7 +4484,7 @@
       <c r="I40" s="110"/>
       <c r="J40" s="110"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="110"/>
       <c r="B41" s="110"/>
       <c r="C41" s="110"/>
@@ -4439,7 +4496,7 @@
       <c r="I41" s="110"/>
       <c r="J41" s="110"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="110"/>
       <c r="B42" s="110"/>
       <c r="C42" s="110"/>
@@ -4451,7 +4508,7 @@
       <c r="I42" s="110"/>
       <c r="J42" s="110"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="110"/>
       <c r="B43" s="110"/>
       <c r="C43" s="110"/>
@@ -4463,7 +4520,7 @@
       <c r="I43" s="110"/>
       <c r="J43" s="110"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="110"/>
       <c r="B44" s="110"/>
       <c r="C44" s="110"/>
@@ -4475,10 +4532,10 @@
       <c r="I44" s="110"/>
       <c r="J44" s="110"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="110"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="110"/>
     </row>
   </sheetData>
@@ -4491,8 +4548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:Q41"/>
@@ -4501,7 +4558,7 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
@@ -4523,8 +4580,8 @@
     <col min="18" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" thickBot="1"/>
+    <row r="3" spans="1:17">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4542,7 +4599,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="26" customFormat="1">
       <c r="B4" s="25"/>
       <c r="C4" s="90" t="s">
         <v>19</v>
@@ -4569,7 +4626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="B5" s="45"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -4584,7 +4641,7 @@
       <c r="M5" s="49"/>
       <c r="N5" s="55"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -4601,7 +4658,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="53"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="45"/>
       <c r="C7" s="179" t="s">
         <v>128</v>
@@ -4623,7 +4680,7 @@
       <c r="M7" s="49"/>
       <c r="N7" s="151"/>
     </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="45"/>
       <c r="C8" s="179" t="s">
         <v>60</v>
@@ -4645,7 +4702,7 @@
       <c r="M8" s="49"/>
       <c r="N8" s="151"/>
     </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17" thickBot="1">
       <c r="B9" s="45"/>
       <c r="C9" s="179" t="s">
         <v>129</v>
@@ -4669,7 +4726,7 @@
       <c r="M9" s="49"/>
       <c r="N9" s="151"/>
     </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="17" thickBot="1">
       <c r="B10" s="45"/>
       <c r="C10" s="176" t="s">
         <v>116</v>
@@ -4693,7 +4750,7 @@
       <c r="M10" s="49"/>
       <c r="N10" s="151"/>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="17" thickBot="1">
       <c r="A11" s="110"/>
       <c r="B11" s="111"/>
       <c r="C11" s="107" t="s">
@@ -4718,7 +4775,7 @@
       </c>
       <c r="O11" s="110"/>
     </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="17" thickBot="1">
       <c r="A12" s="110"/>
       <c r="B12" s="111"/>
       <c r="C12" s="107" t="s">
@@ -4738,7 +4795,7 @@
       <c r="M12" s="116"/>
       <c r="N12" s="146"/>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="17" thickBot="1">
       <c r="A13" s="110"/>
       <c r="B13" s="111"/>
       <c r="C13" s="107" t="s">
@@ -4761,7 +4818,7 @@
       <c r="N13" s="146"/>
       <c r="O13" s="110"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="17" thickBot="1">
       <c r="A14" s="110"/>
       <c r="B14" s="111"/>
       <c r="C14" s="107" t="s">
@@ -4783,7 +4840,7 @@
       <c r="N14" s="146"/>
       <c r="O14" s="110"/>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="17" thickBot="1">
       <c r="A15" s="110"/>
       <c r="B15" s="111"/>
       <c r="C15" s="107" t="s">
@@ -4805,7 +4862,7 @@
       <c r="N15" s="146"/>
       <c r="O15" s="110"/>
     </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="107" t="s">
@@ -4827,7 +4884,7 @@
       <c r="N16" s="146"/>
       <c r="O16" s="110"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="B17" s="45"/>
       <c r="C17" s="51"/>
       <c r="D17" s="108"/>
@@ -4841,7 +4898,7 @@
       <c r="M17" s="49"/>
       <c r="N17" s="56"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="110"/>
       <c r="B18" s="111"/>
       <c r="C18" s="34"/>
@@ -4854,7 +4911,7 @@
       <c r="M18" s="124"/>
       <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="17" thickBot="1">
       <c r="A19" s="110"/>
       <c r="B19" s="111"/>
       <c r="C19" s="12" t="s">
@@ -4869,7 +4926,7 @@
       <c r="M19" s="124"/>
       <c r="N19" s="106"/>
     </row>
-    <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="17" thickBot="1">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="127" t="s">
@@ -4894,7 +4951,7 @@
       <c r="M20" s="124"/>
       <c r="N20" s="151"/>
     </row>
-    <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="17" thickBot="1">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="127" t="s">
@@ -4915,7 +4972,7 @@
       <c r="M21" s="124"/>
       <c r="N21" s="151"/>
     </row>
-    <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="17" thickBot="1">
       <c r="A22" s="110"/>
       <c r="B22" s="111"/>
       <c r="C22" s="127" t="s">
@@ -4934,7 +4991,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="17" thickBot="1">
       <c r="A23" s="110"/>
       <c r="B23" s="111"/>
       <c r="C23" s="127" t="s">
@@ -4954,7 +5011,7 @@
       </c>
       <c r="Q23" s="147"/>
     </row>
-    <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="17" thickBot="1">
       <c r="A24" s="110"/>
       <c r="B24" s="111"/>
       <c r="C24" s="140" t="s">
@@ -4973,7 +5030,7 @@
       <c r="M24" s="116"/>
       <c r="N24" s="151"/>
     </row>
-    <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="17" thickBot="1">
       <c r="A25" s="110"/>
       <c r="B25" s="111"/>
       <c r="C25" s="140" t="s">
@@ -4996,7 +5053,7 @@
       <c r="M25" s="116"/>
       <c r="N25" s="151"/>
     </row>
-    <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="17" thickBot="1">
       <c r="A26" s="110"/>
       <c r="B26" s="111"/>
       <c r="C26" s="140" t="s">
@@ -5017,7 +5074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="17" thickBot="1">
       <c r="A27" s="110"/>
       <c r="B27" s="111"/>
       <c r="C27" s="142" t="s">
@@ -5036,7 +5093,7 @@
       <c r="M27" s="116"/>
       <c r="N27" s="151"/>
     </row>
-    <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="17" thickBot="1">
       <c r="A28" s="110"/>
       <c r="B28" s="111"/>
       <c r="C28" s="140" t="s">
@@ -5055,11 +5112,11 @@
       <c r="M28" s="116"/>
       <c r="N28" s="151"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="B29" s="45"/>
       <c r="N29" s="48"/>
     </row>
-    <row r="30" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="17" thickBot="1">
       <c r="A30" s="110"/>
       <c r="B30" s="111"/>
       <c r="C30" s="34" t="s">
@@ -5074,7 +5131,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="56"/>
     </row>
-    <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="17" thickBot="1">
       <c r="A31" s="110"/>
       <c r="B31" s="111"/>
       <c r="C31" s="126" t="s">
@@ -5096,7 +5153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="17" thickBot="1">
       <c r="A32" s="110"/>
       <c r="B32" s="111"/>
       <c r="C32" s="108" t="s">
@@ -5118,7 +5175,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="17" thickBot="1">
       <c r="A33" s="110"/>
       <c r="B33" s="111"/>
       <c r="C33" s="121" t="s">
@@ -5137,7 +5194,7 @@
       <c r="M33" s="11"/>
       <c r="N33" s="151"/>
     </row>
-    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="17" thickBot="1">
       <c r="A34" s="110"/>
       <c r="B34" s="111"/>
       <c r="C34" s="101" t="s">
@@ -5149,7 +5206,7 @@
       </c>
       <c r="N34" s="151"/>
     </row>
-    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="17" thickBot="1">
       <c r="A35" s="110"/>
       <c r="B35" s="111"/>
       <c r="C35" s="107" t="s">
@@ -5162,7 +5219,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17" thickBot="1">
       <c r="A36" s="110"/>
       <c r="B36" s="111"/>
       <c r="C36" s="107" t="s">
@@ -5175,7 +5232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="17" thickBot="1">
       <c r="A37" s="110"/>
       <c r="B37" s="111"/>
       <c r="C37" s="107" t="s">
@@ -5188,7 +5245,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="17" thickBot="1">
       <c r="A38" s="110"/>
       <c r="B38" s="111"/>
       <c r="C38" s="107" t="s">
@@ -5201,7 +5258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="17" thickBot="1">
       <c r="A39" s="110"/>
       <c r="B39" s="111"/>
       <c r="C39" s="107" t="s">
@@ -5214,12 +5271,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="110"/>
       <c r="B40" s="111"/>
       <c r="N40" s="132"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="110"/>
       <c r="B41" s="111"/>
       <c r="C41" s="48"/>
@@ -5231,8 +5288,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J34"/>
@@ -5241,7 +5298,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="58" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="58" customWidth="1"/>
@@ -5255,8 +5312,8 @@
     <col min="11" max="16384" width="33.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="59"/>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -5267,7 +5324,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="61"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5280,7 +5337,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -5291,7 +5348,7 @@
       <c r="I4" s="64"/>
       <c r="J4" s="57"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="65"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5318,7 +5375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="61"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5329,7 +5386,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="61"/>
       <c r="C7" s="145" t="s">
         <v>60</v>
@@ -5356,13 +5413,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="61"/>
       <c r="C8" s="180" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="61"/>
       <c r="C9" s="180" t="s">
         <v>145</v>
@@ -5375,10 +5432,10 @@
       <c r="I9" s="99"/>
       <c r="J9" s="98"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="61"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="61"/>
       <c r="C11" s="183" t="s">
         <v>116</v>
@@ -5405,7 +5462,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="61"/>
       <c r="C12" s="130" t="s">
         <v>92</v>
@@ -5417,13 +5474,13 @@
       <c r="H12" s="100"/>
       <c r="I12" s="57"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="61"/>
       <c r="C13" s="131" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="61"/>
       <c r="C14" s="180" t="s">
         <v>100</v>
@@ -5433,7 +5490,7 @@
       <c r="H14" s="100"/>
       <c r="J14" s="147"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="61"/>
       <c r="E15" s="105"/>
       <c r="F15" s="57"/>
@@ -5441,7 +5498,7 @@
       <c r="H15" s="100"/>
       <c r="I15" s="115"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="61"/>
       <c r="C16" s="131"/>
       <c r="E16" s="105"/>
@@ -5450,7 +5507,7 @@
       <c r="H16" s="100"/>
       <c r="I16" s="115"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="61"/>
       <c r="C17" s="147"/>
       <c r="D17" s="147"/>
@@ -5459,14 +5516,14 @@
       <c r="I17" s="115"/>
       <c r="J17" s="97"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="61"/>
       <c r="C18" s="147"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="61"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="61"/>
       <c r="C20" s="157"/>
       <c r="D20" s="147"/>
@@ -5476,33 +5533,33 @@
       <c r="H20" s="100"/>
       <c r="J20" s="149"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="61"/>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="61"/>
       <c r="I22" s="99"/>
       <c r="J22" s="57"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="61"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="61"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="61"/>
       <c r="C25" s="110"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="B26" s="61"/>
       <c r="C26" s="130"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="61"/>
       <c r="C27" s="131"/>
       <c r="D27" s="57"/>
@@ -5511,7 +5568,7 @@
       <c r="G27" s="57"/>
       <c r="H27" s="57"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="B28" s="61"/>
       <c r="C28" s="130"/>
       <c r="D28" s="57"/>
@@ -5520,7 +5577,7 @@
       <c r="G28" s="57"/>
       <c r="H28" s="57"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29" s="61"/>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
@@ -5528,32 +5585,32 @@
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30" s="61"/>
       <c r="C30" s="130"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31" s="61"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32" s="61"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" s="61"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" s="61"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:S276"/>
@@ -5562,7 +5619,7 @@
       <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="66" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="66" customWidth="1"/>
@@ -5579,8 +5636,8 @@
     <col min="19" max="16384" width="10.7109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="17" thickBot="1"/>
+    <row r="2" spans="1:19">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -5595,7 +5652,7 @@
       <c r="M2" s="68"/>
       <c r="N2" s="69"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="70"/>
       <c r="B3" s="95"/>
       <c r="C3" s="74" t="s">
@@ -5617,7 +5674,7 @@
       <c r="M3" s="71"/>
       <c r="N3" s="96"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -5633,7 +5690,7 @@
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="B5" s="72"/>
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
@@ -5648,7 +5705,7 @@
       <c r="N5" s="73"/>
       <c r="O5" s="73"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
@@ -5658,7 +5715,7 @@
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="B7" s="72"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
@@ -5669,7 +5726,7 @@
       <c r="N7" s="73"/>
       <c r="O7" s="73"/>
     </row>
-    <row r="8" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="17" thickBot="1">
       <c r="B8" s="72"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
@@ -5689,7 +5746,7 @@
       <c r="N8" s="73"/>
       <c r="O8" s="73"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
@@ -5705,7 +5762,7 @@
       <c r="R9" s="162"/>
       <c r="S9" s="163"/>
     </row>
-    <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19">
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -5733,7 +5790,7 @@
       </c>
       <c r="S10" s="166"/>
     </row>
-    <row r="11" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="20" thickBot="1">
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
@@ -5753,7 +5810,7 @@
       <c r="R11" s="168"/>
       <c r="S11" s="169"/>
     </row>
-    <row r="12" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="20" thickBot="1">
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -5792,7 +5849,7 @@
       </c>
       <c r="S12" s="169"/>
     </row>
-    <row r="13" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="17" thickBot="1">
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
@@ -5812,7 +5869,7 @@
       <c r="R13" s="173"/>
       <c r="S13" s="174"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
@@ -5828,7 +5885,7 @@
       <c r="N14" s="73"/>
       <c r="O14" s="73"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
@@ -5844,7 +5901,7 @@
       <c r="N15" s="73"/>
       <c r="O15" s="73"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
@@ -5856,7 +5913,7 @@
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="72"/>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
@@ -5868,7 +5925,7 @@
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
@@ -5880,7 +5937,7 @@
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
@@ -5896,7 +5953,7 @@
       <c r="N19" s="73"/>
       <c r="O19" s="73"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="72"/>
       <c r="C20" s="70" t="s">
         <v>130</v>
@@ -5911,7 +5968,7 @@
       <c r="N20" s="73"/>
       <c r="O20" s="73"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="72"/>
       <c r="C21" s="70" t="s">
         <v>132</v>
@@ -5926,7 +5983,7 @@
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="72"/>
       <c r="J22" s="73"/>
       <c r="K22" s="73"/>
@@ -5935,7 +5992,7 @@
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="72"/>
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
@@ -5944,7 +6001,7 @@
       <c r="N23" s="73"/>
       <c r="O23" s="73"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="72"/>
       <c r="E24" s="66">
         <v>650000</v>
@@ -5962,7 +6019,7 @@
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="72"/>
       <c r="E25" s="66">
         <f>E24/$H$12</f>
@@ -5982,7 +6039,7 @@
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="72"/>
       <c r="J26" s="73"/>
       <c r="K26" s="73"/>
@@ -5991,7 +6048,7 @@
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="72"/>
       <c r="E27" s="66" t="s">
         <v>121</v>
@@ -6003,7 +6060,7 @@
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="72"/>
       <c r="J28" s="73"/>
       <c r="K28" s="73"/>
@@ -6012,7 +6069,7 @@
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="72"/>
       <c r="E29" s="66">
         <v>350000</v>
@@ -6031,7 +6088,7 @@
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="72"/>
       <c r="E30" s="66">
         <f>E29/$H$12</f>
@@ -6051,7 +6108,7 @@
       <c r="N30" s="73"/>
       <c r="O30" s="73"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="72"/>
       <c r="J31" s="73"/>
       <c r="K31" s="73"/>
@@ -6060,7 +6117,7 @@
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="72"/>
       <c r="J32" s="73"/>
       <c r="K32" s="73"/>
@@ -6069,7 +6126,7 @@
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="72"/>
       <c r="J33" s="73"/>
       <c r="K33" s="73"/>
@@ -6078,7 +6135,7 @@
       <c r="N33" s="73"/>
       <c r="O33" s="73"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="72"/>
       <c r="J34" s="73"/>
       <c r="K34" s="73"/>
@@ -6087,7 +6144,7 @@
       <c r="N34" s="73"/>
       <c r="O34" s="73"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="72"/>
       <c r="J35" s="73"/>
       <c r="K35" s="73"/>
@@ -6096,7 +6153,7 @@
       <c r="N35" s="73"/>
       <c r="O35" s="73"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="72"/>
       <c r="J36" s="73"/>
       <c r="K36" s="73"/>
@@ -6105,7 +6162,7 @@
       <c r="N36" s="73"/>
       <c r="O36" s="73"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="72"/>
       <c r="J37" s="73"/>
       <c r="K37" s="73"/>
@@ -6114,7 +6171,7 @@
       <c r="N37" s="73"/>
       <c r="O37" s="73"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="72"/>
       <c r="J38" s="73"/>
       <c r="K38" s="73"/>
@@ -6123,7 +6180,7 @@
       <c r="N38" s="73"/>
       <c r="O38" s="73"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="72"/>
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
@@ -6132,7 +6189,7 @@
       <c r="N39" s="73"/>
       <c r="O39" s="73"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="72"/>
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
@@ -6141,7 +6198,7 @@
       <c r="N40" s="73"/>
       <c r="O40" s="73"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="72"/>
       <c r="J41" s="73"/>
       <c r="K41" s="73"/>
@@ -6150,7 +6207,7 @@
       <c r="N41" s="73"/>
       <c r="O41" s="73"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="72"/>
       <c r="E42" s="66" t="s">
         <v>127</v>
@@ -6161,7 +6218,7 @@
       <c r="N42" s="73"/>
       <c r="O42" s="73"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="72"/>
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
@@ -6169,7 +6226,7 @@
       <c r="N43" s="73"/>
       <c r="O43" s="73"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="72"/>
       <c r="C44" s="73"/>
       <c r="E44" s="66">
@@ -6188,7 +6245,7 @@
       <c r="N44" s="73"/>
       <c r="O44" s="73"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="72"/>
       <c r="C45" s="73"/>
       <c r="E45" s="66">
@@ -6204,7 +6261,7 @@
       <c r="N45" s="73"/>
       <c r="O45" s="73"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="72"/>
       <c r="C46" s="73"/>
       <c r="E46" s="73">
@@ -6220,7 +6277,7 @@
       <c r="N46" s="73"/>
       <c r="O46" s="73"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="72"/>
       <c r="C47" s="73"/>
       <c r="F47" s="73"/>
@@ -6230,7 +6287,7 @@
       <c r="N47" s="73"/>
       <c r="O47" s="73"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="72"/>
       <c r="E48" s="66">
         <f>0.000833</f>
@@ -6248,7 +6305,7 @@
       <c r="N48" s="73"/>
       <c r="O48" s="73"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" s="72"/>
       <c r="E49" s="66">
         <f>38.018007203</f>
@@ -6267,7 +6324,7 @@
       <c r="N49" s="73"/>
       <c r="O49" s="73"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" s="72"/>
       <c r="C50" s="73"/>
       <c r="J50"/>
@@ -6277,7 +6334,7 @@
       <c r="N50" s="73"/>
       <c r="O50" s="73"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" s="72"/>
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
@@ -6297,7 +6354,7 @@
       <c r="N51" s="73"/>
       <c r="O51" s="73"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" s="72"/>
       <c r="C52" s="158"/>
       <c r="D52" s="73"/>
@@ -6307,7 +6364,7 @@
       <c r="N52" s="73"/>
       <c r="O52" s="73"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" s="72"/>
       <c r="D53" s="73"/>
       <c r="K53" s="73"/>
@@ -6316,7 +6373,7 @@
       <c r="N53" s="73"/>
       <c r="O53" s="73"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" s="72"/>
       <c r="K54" s="73"/>
       <c r="L54" s="73"/>
@@ -6324,7 +6381,7 @@
       <c r="N54" s="73"/>
       <c r="O54" s="73"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" s="72"/>
       <c r="K55" s="73"/>
       <c r="L55" s="73"/>
@@ -6332,7 +6389,7 @@
       <c r="N55" s="73"/>
       <c r="O55" s="73"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="72"/>
       <c r="K56" s="73"/>
       <c r="L56" s="73"/>
@@ -6340,7 +6397,7 @@
       <c r="N56" s="73"/>
       <c r="O56" s="73"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="72"/>
       <c r="D57" s="73"/>
       <c r="K57" s="73"/>
@@ -6349,7 +6406,7 @@
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="72"/>
       <c r="K58" s="73"/>
       <c r="L58" s="73"/>
@@ -6357,7 +6414,7 @@
       <c r="N58" s="73"/>
       <c r="O58" s="73"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="72"/>
       <c r="K59" s="73"/>
       <c r="L59" s="73"/>
@@ -6365,7 +6422,7 @@
       <c r="N59" s="73"/>
       <c r="O59" s="73"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="72"/>
       <c r="K60" s="73"/>
       <c r="L60" s="73"/>
@@ -6373,7 +6430,7 @@
       <c r="N60" s="73"/>
       <c r="O60" s="73"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="72"/>
       <c r="K61" s="73"/>
       <c r="L61" s="73"/>
@@ -6381,7 +6438,7 @@
       <c r="N61" s="73"/>
       <c r="O61" s="73"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="72"/>
       <c r="K62" s="73"/>
       <c r="L62" s="73"/>
@@ -6389,7 +6446,7 @@
       <c r="N62" s="73"/>
       <c r="O62" s="73"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="72"/>
       <c r="K63" s="73"/>
       <c r="L63" s="73"/>
@@ -6397,7 +6454,7 @@
       <c r="N63" s="73"/>
       <c r="O63" s="73"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="72"/>
       <c r="C64" s="70" t="s">
         <v>133</v>
@@ -6408,7 +6465,7 @@
       <c r="N64" s="73"/>
       <c r="O64" s="73"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15">
       <c r="B65" s="72"/>
       <c r="K65" s="73"/>
       <c r="L65" s="73"/>
@@ -6416,7 +6473,7 @@
       <c r="N65" s="73"/>
       <c r="O65" s="73"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15">
       <c r="B66" s="72"/>
       <c r="K66" s="73"/>
       <c r="L66" s="73"/>
@@ -6424,7 +6481,7 @@
       <c r="N66" s="73"/>
       <c r="O66" s="73"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15">
       <c r="B67" s="72"/>
       <c r="K67" s="73"/>
       <c r="L67" s="73"/>
@@ -6432,7 +6489,7 @@
       <c r="N67" s="73"/>
       <c r="O67" s="73"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15">
       <c r="B68" s="72"/>
       <c r="K68" s="73"/>
       <c r="L68" s="73"/>
@@ -6440,7 +6497,7 @@
       <c r="N68" s="73"/>
       <c r="O68" s="73"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15">
       <c r="B69" s="72"/>
       <c r="C69" s="73"/>
       <c r="K69" s="73"/>
@@ -6449,7 +6506,7 @@
       <c r="N69" s="73"/>
       <c r="O69" s="73"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="B70" s="72"/>
       <c r="C70" s="73"/>
       <c r="L70" s="73"/>
@@ -6457,7 +6514,7 @@
       <c r="N70" s="73"/>
       <c r="O70" s="73"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15">
       <c r="B71" s="72"/>
       <c r="C71" s="73"/>
       <c r="L71" s="73"/>
@@ -6465,7 +6522,7 @@
       <c r="N71" s="73"/>
       <c r="O71" s="73"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15">
       <c r="B72" s="72"/>
       <c r="C72" s="73"/>
       <c r="L72" s="73"/>
@@ -6473,7 +6530,7 @@
       <c r="N72" s="73"/>
       <c r="O72" s="73"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15">
       <c r="B73" s="72"/>
       <c r="C73" s="73"/>
       <c r="K73" s="73"/>
@@ -6482,7 +6539,7 @@
       <c r="N73" s="73"/>
       <c r="O73" s="73"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15">
       <c r="B74" s="72"/>
       <c r="C74" s="73"/>
       <c r="K74" s="73"/>
@@ -6491,7 +6548,7 @@
       <c r="N74" s="73"/>
       <c r="O74" s="73"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="B75" s="72"/>
       <c r="K75" s="73"/>
       <c r="L75" s="73"/>
@@ -6499,99 +6556,99 @@
       <c r="N75" s="73"/>
       <c r="O75" s="73"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="B76" s="72"/>
       <c r="L76" s="73"/>
       <c r="M76" s="73"/>
       <c r="N76" s="73"/>
       <c r="O76" s="73"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="B77" s="72"/>
       <c r="N77" s="73"/>
       <c r="O77" s="73"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="B78" s="72"/>
       <c r="N78" s="73"/>
       <c r="O78" s="73"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="B79" s="72"/>
       <c r="N79" s="73"/>
       <c r="O79" s="73"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="B80" s="72"/>
       <c r="N80" s="73"/>
       <c r="O80" s="73"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15">
       <c r="B81" s="72"/>
       <c r="N81" s="73"/>
       <c r="O81" s="73"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15">
       <c r="B82" s="72"/>
       <c r="N82" s="73"/>
       <c r="O82" s="73"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15">
       <c r="B83" s="72"/>
       <c r="N83" s="73"/>
       <c r="O83" s="73"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15">
       <c r="B84" s="72"/>
       <c r="N84" s="73"/>
       <c r="O84" s="73"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15">
       <c r="B85" s="72"/>
       <c r="N85" s="73"/>
       <c r="O85" s="73"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15">
       <c r="B86" s="72"/>
       <c r="N86" s="73"/>
       <c r="O86" s="73"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15">
       <c r="B87" s="72"/>
       <c r="N87" s="73"/>
       <c r="O87" s="73"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15">
       <c r="B88" s="72"/>
       <c r="N88" s="73"/>
       <c r="O88" s="73"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15">
       <c r="B89" s="72"/>
       <c r="N89" s="73"/>
       <c r="O89" s="73"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15">
       <c r="B90" s="72"/>
       <c r="N90" s="73"/>
       <c r="O90" s="73"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15">
       <c r="B91" s="72"/>
       <c r="N91" s="73"/>
       <c r="O91" s="73"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15">
       <c r="B92" s="72"/>
       <c r="N92" s="73"/>
       <c r="O92" s="73"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15">
       <c r="B93" s="72"/>
       <c r="N93" s="73"/>
       <c r="O93" s="73"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15">
       <c r="B94" s="72"/>
       <c r="E94" s="66">
         <v>56700</v>
@@ -6605,7 +6662,7 @@
       <c r="N94" s="73"/>
       <c r="O94" s="73"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15">
       <c r="B95" s="72"/>
       <c r="E95" s="66">
         <v>63000</v>
@@ -6617,7 +6674,7 @@
       <c r="N95" s="73"/>
       <c r="O95" s="73"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15">
       <c r="B96" s="72"/>
       <c r="E96" s="66">
         <f>AVERAGE(E94:E95)</f>
@@ -6633,7 +6690,7 @@
       <c r="N96" s="73"/>
       <c r="O96" s="73"/>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:15">
       <c r="B97" s="72"/>
       <c r="E97" s="66">
         <f>E96*600/700</f>
@@ -6649,12 +6706,12 @@
       <c r="N97" s="73"/>
       <c r="O97" s="73"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:15">
       <c r="B98" s="72"/>
       <c r="N98" s="73"/>
       <c r="O98" s="73"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:15">
       <c r="B99" s="72"/>
       <c r="E99" s="66">
         <f>E97/$H$12</f>
@@ -6669,190 +6726,190 @@
       <c r="N99" s="73"/>
       <c r="O99" s="73"/>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:15">
       <c r="B100" s="72"/>
       <c r="N100" s="73"/>
       <c r="O100" s="73"/>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:15">
       <c r="B101" s="72"/>
       <c r="C101" s="70"/>
       <c r="N101" s="73"/>
       <c r="O101" s="73"/>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:15">
       <c r="B102" s="72"/>
       <c r="C102" s="70"/>
       <c r="N102" s="73"/>
       <c r="O102" s="73"/>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:15">
       <c r="B103" s="72"/>
       <c r="N103" s="73"/>
       <c r="O103" s="73"/>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:15">
       <c r="B104" s="72"/>
       <c r="N104" s="73"/>
       <c r="O104" s="73"/>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:15">
       <c r="B105" s="72"/>
       <c r="N105" s="73"/>
       <c r="O105" s="73"/>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:15">
       <c r="B106" s="72"/>
       <c r="N106" s="73"/>
       <c r="O106" s="73"/>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:15">
       <c r="B107" s="72"/>
       <c r="N107" s="73"/>
       <c r="O107" s="73"/>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:15">
       <c r="B108" s="72"/>
       <c r="N108" s="73"/>
       <c r="O108" s="73"/>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:15">
       <c r="B109" s="72"/>
       <c r="N109" s="73"/>
       <c r="O109" s="73"/>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:15">
       <c r="B110" s="72"/>
       <c r="N110" s="73"/>
       <c r="O110" s="73"/>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:15">
       <c r="B111" s="72"/>
       <c r="N111" s="73"/>
       <c r="O111" s="73"/>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:15">
       <c r="B112" s="72"/>
       <c r="N112" s="73"/>
       <c r="O112" s="73"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:15">
       <c r="B113" s="72"/>
       <c r="N113" s="73"/>
       <c r="O113" s="73"/>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:15">
       <c r="B114" s="72"/>
       <c r="N114" s="73"/>
       <c r="O114" s="73"/>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:15">
       <c r="B115" s="72"/>
       <c r="N115" s="73"/>
       <c r="O115" s="73"/>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:15">
       <c r="B116" s="72"/>
       <c r="N116" s="73"/>
       <c r="O116" s="73"/>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:15">
       <c r="B117" s="72"/>
       <c r="N117" s="73"/>
       <c r="O117" s="73"/>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:15">
       <c r="B118" s="72"/>
       <c r="N118" s="73"/>
       <c r="O118" s="73"/>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:15">
       <c r="B119" s="72"/>
       <c r="N119" s="73"/>
       <c r="O119" s="73"/>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:15">
       <c r="B120" s="72"/>
       <c r="N120" s="73"/>
       <c r="O120" s="73"/>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:15">
       <c r="B121" s="72"/>
       <c r="C121" s="70"/>
       <c r="N121" s="73"/>
       <c r="O121" s="73"/>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:15">
       <c r="B122" s="72"/>
       <c r="N122" s="73"/>
       <c r="O122" s="73"/>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:15">
       <c r="B123" s="72"/>
       <c r="N123" s="73"/>
       <c r="O123" s="73"/>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:15">
       <c r="B124" s="72"/>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:15">
       <c r="B125" s="72"/>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:15">
       <c r="B126" s="72"/>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:15">
       <c r="B127" s="72"/>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:15">
       <c r="B128" s="72"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7">
       <c r="B129" s="72"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7">
       <c r="B130" s="72"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7">
       <c r="B131" s="72"/>
       <c r="C131" s="70" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7">
       <c r="B132" s="72"/>
       <c r="C132" s="70" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7">
       <c r="B133" s="72"/>
       <c r="C133" s="70" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7">
       <c r="B134" s="72"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7">
       <c r="B135" s="72"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7">
       <c r="B136" s="72"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7">
       <c r="B137" s="72"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7">
       <c r="B138" s="72"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7">
       <c r="B139" s="72"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7">
       <c r="B140" s="72"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7">
       <c r="B141" s="72"/>
       <c r="E141" s="66">
         <v>93.1</v>
@@ -6864,10 +6921,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7">
       <c r="B142" s="72"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7">
       <c r="B143" s="72"/>
       <c r="E143" s="66">
         <f>E141/100</f>
@@ -6877,7 +6934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7">
       <c r="B144" s="72"/>
       <c r="E144" s="66">
         <f>1-E143</f>
@@ -6887,10 +6944,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:7">
       <c r="B145" s="72"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7">
       <c r="B146" s="72"/>
       <c r="E146" s="66">
         <f>E141/100</f>
@@ -6900,40 +6957,40 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:7">
       <c r="B147" s="72"/>
       <c r="G147" s="66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7">
       <c r="B148" s="72"/>
       <c r="G148" s="66" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:7">
       <c r="B149" s="72"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:7">
       <c r="B150" s="72"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:7">
       <c r="B151" s="72"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:7">
       <c r="B152" s="72"/>
       <c r="C152" s="70" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:7">
       <c r="B153" s="72"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:7">
       <c r="B154" s="72"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7">
       <c r="B155" s="72"/>
       <c r="E155" s="66">
         <f>18/24*8760</f>
@@ -6943,16 +7000,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:7">
       <c r="B156" s="72"/>
       <c r="G156" s="66" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:7">
       <c r="B157" s="72"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:7">
       <c r="B158" s="72"/>
       <c r="E158" s="66">
         <v>20</v>
@@ -6964,7 +7021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:7">
       <c r="B159" s="72"/>
       <c r="E159" s="66">
         <v>0.5</v>
@@ -6976,7 +7033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7">
       <c r="B160" s="72"/>
       <c r="E160" s="66">
         <f>10*10/1000000</f>
@@ -6989,43 +7046,43 @@
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:19">
       <c r="B161" s="72"/>
     </row>
-    <row r="162" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:19">
       <c r="B162" s="72"/>
     </row>
-    <row r="163" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:19">
       <c r="B163" s="72"/>
     </row>
-    <row r="164" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:19">
       <c r="B164" s="72"/>
       <c r="C164" s="70"/>
     </row>
-    <row r="165" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:19">
       <c r="B165" s="72"/>
     </row>
-    <row r="166" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:19">
       <c r="B166" s="72"/>
     </row>
-    <row r="167" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:19">
       <c r="B167" s="72"/>
     </row>
-    <row r="168" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:19">
       <c r="B168" s="72"/>
     </row>
-    <row r="169" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:19">
       <c r="B169" s="72"/>
     </row>
-    <row r="170" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:19">
       <c r="B170" s="72"/>
       <c r="L170" s="73"/>
     </row>
-    <row r="171" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:19">
       <c r="B171" s="72"/>
       <c r="L171" s="73"/>
     </row>
-    <row r="172" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:19">
       <c r="B172" s="72"/>
       <c r="L172" s="73"/>
       <c r="R172" s="66" t="s">
@@ -7035,46 +7092,46 @@
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:19">
       <c r="B173" s="72"/>
       <c r="L173" s="73"/>
     </row>
-    <row r="174" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:19">
       <c r="B174" s="72"/>
     </row>
-    <row r="175" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:19">
       <c r="B175" s="72"/>
     </row>
-    <row r="176" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:19">
       <c r="B176" s="72"/>
       <c r="C176" s="70" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="177" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:19">
       <c r="B177" s="72"/>
     </row>
-    <row r="178" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:19">
       <c r="B178" s="72"/>
     </row>
-    <row r="179" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:19">
       <c r="B179" s="72"/>
     </row>
-    <row r="180" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:19">
       <c r="B180" s="72"/>
       <c r="C180" s="70" t="s">
         <v>139</v>
       </c>
       <c r="L180" s="73"/>
     </row>
-    <row r="181" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:19">
       <c r="B181" s="72"/>
       <c r="C181" s="70" t="s">
         <v>160</v>
       </c>
       <c r="L181" s="73"/>
     </row>
-    <row r="182" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:19">
       <c r="B182" s="72"/>
       <c r="E182" s="73"/>
       <c r="L182" s="73"/>
@@ -7085,14 +7142,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="183" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:19">
       <c r="B183" s="72"/>
       <c r="F183" s="73"/>
       <c r="G183" s="73"/>
       <c r="H183" s="73"/>
       <c r="L183" s="73"/>
     </row>
-    <row r="184" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:19">
       <c r="B184" s="72"/>
       <c r="C184" s="66" t="s">
         <v>161</v>
@@ -7100,290 +7157,290 @@
       <c r="E184" s="73"/>
       <c r="H184" s="73"/>
     </row>
-    <row r="185" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:19">
       <c r="B185" s="72"/>
       <c r="F185" s="73"/>
       <c r="G185" s="73"/>
       <c r="H185" s="73"/>
     </row>
-    <row r="186" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:19">
       <c r="B186" s="72"/>
     </row>
-    <row r="187" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:19">
       <c r="B187" s="72"/>
     </row>
-    <row r="188" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:19">
       <c r="B188" s="72"/>
       <c r="D188" s="73"/>
     </row>
-    <row r="189" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:19">
       <c r="B189" s="72"/>
       <c r="D189" s="73"/>
     </row>
-    <row r="190" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:19">
       <c r="B190" s="72"/>
       <c r="D190" s="73"/>
       <c r="E190" s="73"/>
     </row>
-    <row r="191" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:19">
       <c r="B191" s="72"/>
       <c r="D191" s="73"/>
       <c r="F191" s="73"/>
       <c r="K191" s="73"/>
     </row>
-    <row r="192" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:19">
       <c r="B192" s="72"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2">
       <c r="B193" s="72"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2">
       <c r="B194" s="72"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2">
       <c r="B195" s="72"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2">
       <c r="B196" s="72"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2">
       <c r="B197" s="72"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2">
       <c r="B198" s="72"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2">
       <c r="B199" s="72"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2">
       <c r="B200" s="72"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2">
       <c r="B201" s="72"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2">
       <c r="B202" s="72"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2">
       <c r="B203" s="72"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2">
       <c r="B204" s="72"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2">
       <c r="B205" s="72"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2">
       <c r="B206" s="72"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2">
       <c r="B207" s="72"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2">
       <c r="B208" s="72"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2">
       <c r="B209" s="72"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2">
       <c r="B210" s="72"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2">
       <c r="B211" s="72"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2">
       <c r="B212" s="72"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2">
       <c r="B213" s="72"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2">
       <c r="B214" s="72"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2">
       <c r="B215" s="72"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2">
       <c r="B216" s="72"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2">
       <c r="B217" s="72"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2">
       <c r="B218" s="72"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2">
       <c r="B219" s="72"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2">
       <c r="B220" s="72"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2">
       <c r="B221" s="72"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2">
       <c r="B222" s="72"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2">
       <c r="B223" s="72"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2">
       <c r="B224" s="72"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2">
       <c r="B225" s="72"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2">
       <c r="B226" s="72"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2">
       <c r="B227" s="72"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2">
       <c r="B228" s="72"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2">
       <c r="B229" s="72"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2">
       <c r="B230" s="72"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2">
       <c r="B231" s="72"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2">
       <c r="B232" s="72"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2">
       <c r="B233" s="72"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2">
       <c r="B234" s="72"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2">
       <c r="B235" s="72"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2">
       <c r="B236" s="72"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2">
       <c r="B237" s="72"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2">
       <c r="B238" s="72"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2">
       <c r="B239" s="72"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2">
       <c r="B240" s="72"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2">
       <c r="B241" s="72"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2">
       <c r="B242" s="72"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2">
       <c r="B243" s="72"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2">
       <c r="B244" s="72"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2">
       <c r="B245" s="72"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2">
       <c r="B246" s="72"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2">
       <c r="B247" s="72"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2">
       <c r="B248" s="72"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2">
       <c r="B249" s="72"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2">
       <c r="B250" s="72"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2">
       <c r="B251" s="72"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2">
       <c r="B252" s="72"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2">
       <c r="B253" s="72"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2">
       <c r="B254" s="72"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2">
       <c r="B255" s="72"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2">
       <c r="B256" s="72"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2">
       <c r="B257" s="72"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2">
       <c r="B258" s="72"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2">
       <c r="B259" s="72"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2">
       <c r="B260" s="72"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2">
       <c r="B261" s="72"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2">
       <c r="B262" s="72"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2">
       <c r="B263" s="72"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2">
       <c r="B264" s="72"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2">
       <c r="B265" s="72"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2">
       <c r="B266" s="72"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2">
       <c r="B267" s="72"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2">
       <c r="B268" s="72"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2">
       <c r="B269" s="72"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2">
       <c r="B270" s="72"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2">
       <c r="B271" s="72"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2">
       <c r="B272" s="72"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2">
       <c r="B273" s="72"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2">
       <c r="B274" s="72"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2">
       <c r="B275" s="72"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2">
       <c r="B276" s="72"/>
     </row>
   </sheetData>
